--- a/Data/Sales.xlsx
+++ b/Data/Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\2023.1\ATS\BaiTapNhom\ATS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Desktop\2023.1\ATS\BaiTapNhom\ATS\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F50D61A-6F4E-4E28-8AF5-B3448D6929FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050B8D90-9DE0-4CAA-A638-0B640F77B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{081E6836-95D7-4FDF-9490-87FF3C13102A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{081E6836-95D7-4FDF-9490-87FF3C13102A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -127,19 +127,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -150,6 +336,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56DD81CE-FEF4-4393-9405-A2E2D7DAAC98}" name="Table1" displayName="Table1" ref="A1:C13" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C13" xr:uid="{56DD81CE-FEF4-4393-9405-A2E2D7DAAC98}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5411AFC0-E196-4A36-94DE-C6BCEEF78E69}" name="Quarter" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{55B44993-6F33-4100-93B2-9298F3DCC66E}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B5092A03-9C4D-43D5-8661-95A8D3368982}" name="Sale" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,155 +650,161 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>735</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>68.002200000000002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>330</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>30.531600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>560</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>57.567999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>750</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>77.099999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>730</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>75.043999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>450</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>46.26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>600</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>61.68</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>450</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>46.26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>555</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>57.054000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>600</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>61.68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>400</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>41.12</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <v>800</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="9">
         <v>82.24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>